--- a/players_stats/Bracey Wright.xlsx
+++ b/players_stats/Bracey Wright.xlsx
@@ -552,15 +552,15 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1986-87</t>
+          <t>2005-06</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -570,92 +570,92 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>PF</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L2" t="n">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>0.435</v>
+        <v>0.412</v>
       </c>
       <c r="N2" t="n">
+        <v>6</v>
+      </c>
+      <c r="O2" t="n">
+        <v>17</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.353</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>15</v>
+      </c>
+      <c r="R2" t="n">
+        <v>34</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.441</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.471</v>
+      </c>
+      <c r="U2" t="n">
+        <v>14</v>
+      </c>
+      <c r="V2" t="n">
+        <v>16</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="X2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC2" t="n">
         <v>0</v>
       </c>
-      <c r="O2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>20</v>
-      </c>
-      <c r="R2" t="n">
-        <v>45</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.444</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.435</v>
-      </c>
-      <c r="U2" t="n">
-        <v>12</v>
-      </c>
-      <c r="V2" t="n">
-        <v>28</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.429</v>
-      </c>
-      <c r="X2" t="n">
-        <v>25</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>53</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>3</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>6</v>
-      </c>
       <c r="AD2" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AE2" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="AF2" t="n">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 211</t>
+          <t xml:space="preserve"> 190</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 102 </t>
+          <t xml:space="preserve"> 95 </t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="AJ2" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3">
@@ -676,15 +676,15 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1987-88</t>
+          <t>2006-07</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -694,88 +694,92 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>PF</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
+        <v>190</v>
+      </c>
+      <c r="K3" t="n">
+        <v>24</v>
+      </c>
+      <c r="L3" t="n">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="N3" t="n">
+        <v>6</v>
+      </c>
+      <c r="O3" t="n">
+        <v>20</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>18</v>
+      </c>
+      <c r="R3" t="n">
+        <v>40</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="U3" t="n">
+        <v>13</v>
+      </c>
+      <c r="V3" t="n">
+        <v>18</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.722</v>
+      </c>
+      <c r="X3" t="n">
         <v>7</v>
       </c>
-      <c r="K3" t="n">
+      <c r="Y3" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC3" t="n">
         <v>1</v>
       </c>
-      <c r="L3" t="n">
-        <v>5</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="n">
-        <v>1</v>
-      </c>
-      <c r="R3" t="n">
-        <v>5</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0</v>
-      </c>
       <c r="AD3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AE3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AF3" t="n">
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 211</t>
+          <t xml:space="preserve"> 190</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 102 </t>
+          <t xml:space="preserve"> 95 </t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
@@ -784,7 +788,7 @@
         </is>
       </c>
       <c r="AJ3" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4">
@@ -808,92 +812,92 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>PF</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>145</v>
+        <v>325</v>
       </c>
       <c r="K4" t="n">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="L4" t="n">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="M4" t="n">
-        <v>0.412</v>
+        <v>0.405</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>0.324</v>
       </c>
       <c r="Q4" t="n">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="R4" t="n">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="S4" t="n">
-        <v>0.42</v>
+        <v>0.446</v>
       </c>
       <c r="T4" t="n">
-        <v>0.412</v>
+        <v>0.459</v>
       </c>
       <c r="U4" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="V4" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="W4" t="n">
-        <v>0.429</v>
+        <v>0.794</v>
       </c>
       <c r="X4" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="Y4" t="n">
         <v>29</v>
       </c>
       <c r="Z4" t="n">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="AA4" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC4" t="n">
         <v>1</v>
       </c>
-      <c r="AB4" t="n">
-        <v>3</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>6</v>
-      </c>
       <c r="AD4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE4" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="AF4" t="n">
-        <v>54</v>
+        <v>129</v>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 211</t>
+          <t xml:space="preserve"> 190</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 102 </t>
+          <t xml:space="preserve"> 95 </t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
@@ -902,7 +906,7 @@
         </is>
       </c>
       <c r="AJ4" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
